--- a/result_eth.xlsx
+++ b/result_eth.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>ETHNICITY</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>White</t>
-  </si>
-  <si>
-    <t>Unknown</t>
   </si>
   <si>
     <t>Hispanic</t>
@@ -407,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,44 +444,44 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.03346670795413603</v>
+        <v>0.0009023136107403013</v>
       </c>
       <c r="D3">
-        <v>0.03346670795413603</v>
+        <v>0.0009023136107403013</v>
       </c>
       <c r="E3">
-        <v>0.3310441485152211</v>
+        <v>0.9602636035549882</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.0009023136107403013</v>
+        <v>-0.06374228915396518</v>
       </c>
       <c r="D4">
-        <v>0.0009023136107403013</v>
+        <v>-0.06374228915396518</v>
       </c>
       <c r="E4">
-        <v>0.9602636035549882</v>
+        <v>0.004322322957274524</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -492,42 +489,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>-0.06374228915396518</v>
+        <v>-0.064343692680285</v>
       </c>
       <c r="D5">
-        <v>-0.06374228915396518</v>
+        <v>-0.064343692680285</v>
       </c>
       <c r="E5">
-        <v>0.004322322957274524</v>
+        <v>0.002989716955923094</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>-0.064343692680285</v>
-      </c>
-      <c r="D6">
-        <v>-0.064343692680285</v>
-      </c>
-      <c r="E6">
-        <v>0.002989716955923094</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/result_eth.xlsx
+++ b/result_eth.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>ETHNICITY</t>
   </si>
@@ -31,22 +31,22 @@
     <t>STAT</t>
   </si>
   <si>
+    <t>STAT_COUNT</t>
+  </si>
+  <si>
     <t>White</t>
   </si>
   <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
     <t>Hispanic</t>
   </si>
   <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -404,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,13 +426,16 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -444,67 +447,79 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>0.0009023136107403013</v>
+        <v>0.03159363068831256</v>
       </c>
       <c r="D3">
-        <v>0.0009023136107403013</v>
+        <v>0.03159363068831256</v>
       </c>
       <c r="E3">
-        <v>0.9602636035549882</v>
+        <v>0.1287752015268137</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>-0.06374228915396518</v>
+        <v>-0.01258219199559615</v>
       </c>
       <c r="D4">
-        <v>-0.06374228915396518</v>
+        <v>-0.01258219199559615</v>
       </c>
       <c r="E4">
-        <v>0.004322322957274524</v>
+        <v>0.5574637600307581</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>-0.064343692680285</v>
+        <v>-0.01316119509432687</v>
       </c>
       <c r="D5">
-        <v>-0.064343692680285</v>
+        <v>-0.01316119509432687</v>
       </c>
       <c r="E5">
-        <v>0.002989716955923094</v>
+        <v>0.4502249808212021</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/result_eth.xlsx
+++ b/result_eth.xlsx
@@ -461,13 +461,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.03159363068831256</v>
+        <v>0.0315936306883336</v>
       </c>
       <c r="D3">
-        <v>0.03159363068831256</v>
+        <v>0.0315936306883336</v>
       </c>
       <c r="E3">
-        <v>0.1287752015268137</v>
+        <v>0.1287752015265597</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -484,13 +484,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>-0.01258219199559615</v>
+        <v>-0.01258219199560887</v>
       </c>
       <c r="D4">
-        <v>-0.01258219199559615</v>
+        <v>-0.01258219199560887</v>
       </c>
       <c r="E4">
-        <v>0.5574637600307581</v>
+        <v>0.5574637600303601</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -507,13 +507,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>-0.01316119509432687</v>
+        <v>-0.01316119509432882</v>
       </c>
       <c r="D5">
-        <v>-0.01316119509432687</v>
+        <v>-0.01316119509432882</v>
       </c>
       <c r="E5">
-        <v>0.4502249808212021</v>
+        <v>0.450224980821133</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>

--- a/result_eth.xlsx
+++ b/result_eth.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>ETHNICITY</t>
   </si>
@@ -37,16 +37,19 @@
     <t>White</t>
   </si>
   <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
     <t>Black</t>
   </si>
   <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>Hispanic</t>
-  </si>
-  <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -461,13 +464,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.0315936306883336</v>
+        <v>0.004956417010236295</v>
       </c>
       <c r="D3">
-        <v>0.0315936306883336</v>
+        <v>0.004956417010236295</v>
       </c>
       <c r="E3">
-        <v>0.1287752015265597</v>
+        <v>0.7762015411483461</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -484,19 +487,19 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>-0.01258219199560887</v>
+        <v>-0.06570145040776243</v>
       </c>
       <c r="D4">
-        <v>-0.01258219199560887</v>
+        <v>-0.06570145040776243</v>
       </c>
       <c r="E4">
-        <v>0.5574637600303601</v>
+        <v>0.003224990008723133</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -507,19 +510,19 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>-0.01316119509432882</v>
+        <v>-0.0658492354741801</v>
       </c>
       <c r="D5">
-        <v>-0.01316119509432882</v>
+        <v>-0.0658492354741801</v>
       </c>
       <c r="E5">
-        <v>0.450224980821133</v>
+        <v>0.002174393300573238</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/result_eth.xlsx
+++ b/result_eth.xlsx
@@ -464,13 +464,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.004956417010236295</v>
+        <v>0.005030745184045785</v>
       </c>
       <c r="D3">
-        <v>0.004956417010236295</v>
+        <v>0.005030745184045785</v>
       </c>
       <c r="E3">
-        <v>0.7762015411483461</v>
+        <v>0.7728537141022239</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -487,13 +487,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>-0.06570145040776243</v>
+        <v>-0.06518080107097415</v>
       </c>
       <c r="D4">
-        <v>-0.06570145040776243</v>
+        <v>-0.06518080107097415</v>
       </c>
       <c r="E4">
-        <v>0.003224990008723133</v>
+        <v>0.003440379652595433</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -510,13 +510,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>-0.0658492354741801</v>
+        <v>-0.06532056862537527</v>
       </c>
       <c r="D5">
-        <v>-0.0658492354741801</v>
+        <v>-0.06532056862537527</v>
       </c>
       <c r="E5">
-        <v>0.002174393300573238</v>
+        <v>0.002331580381575777</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>

--- a/result_eth.xlsx
+++ b/result_eth.xlsx
@@ -40,10 +40,10 @@
     <t>Hispanic</t>
   </si>
   <si>
+    <t>Black</t>
+  </si>
+  <si>
     <t>Asian</t>
-  </si>
-  <si>
-    <t>Black</t>
   </si>
   <si>
     <t>No</t>
@@ -464,13 +464,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.005030745184045785</v>
+        <v>0.0001413464189845889</v>
       </c>
       <c r="D3">
-        <v>0.005030745184045785</v>
+        <v>0.0001413464189845889</v>
       </c>
       <c r="E3">
-        <v>0.7728537141022239</v>
+        <v>0.9937732000825565</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -487,13 +487,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>-0.06518080107097415</v>
+        <v>-0.06254012411990473</v>
       </c>
       <c r="D4">
-        <v>-0.06518080107097415</v>
+        <v>-0.06254012411990473</v>
       </c>
       <c r="E4">
-        <v>0.003440379652595433</v>
+        <v>0.00400754966092007</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -510,13 +510,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>-0.06532056862537527</v>
+        <v>-0.06427308807355728</v>
       </c>
       <c r="D5">
-        <v>-0.06532056862537527</v>
+        <v>-0.06427308807355728</v>
       </c>
       <c r="E5">
-        <v>0.002331580381575777</v>
+        <v>0.003996397776674821</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>

--- a/result_eth.xlsx
+++ b/result_eth.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>ETHNICITY</t>
   </si>
@@ -37,19 +37,16 @@
     <t>White</t>
   </si>
   <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
     <t>Hispanic</t>
   </si>
   <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -464,13 +461,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.0001413464189845889</v>
+        <v>0.0315936306883336</v>
       </c>
       <c r="D3">
-        <v>0.0001413464189845889</v>
+        <v>0.0315936306883336</v>
       </c>
       <c r="E3">
-        <v>0.9937732000825565</v>
+        <v>0.1287752015265597</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -487,19 +484,19 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>-0.06254012411990473</v>
+        <v>-0.01258219199560887</v>
       </c>
       <c r="D4">
-        <v>-0.06254012411990473</v>
+        <v>-0.01258219199560887</v>
       </c>
       <c r="E4">
-        <v>0.00400754966092007</v>
+        <v>0.5574637600303601</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,19 +507,19 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>-0.06427308807355728</v>
+        <v>-0.01316119509432882</v>
       </c>
       <c r="D5">
-        <v>-0.06427308807355728</v>
+        <v>-0.01316119509432882</v>
       </c>
       <c r="E5">
-        <v>0.003996397776674821</v>
+        <v>0.450224980821133</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/result_eth.xlsx
+++ b/result_eth.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>ETHNICITY</t>
   </si>
@@ -37,16 +37,19 @@
     <t>White</t>
   </si>
   <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
     <t>Black</t>
   </si>
   <si>
     <t>Asian</t>
   </si>
   <si>
-    <t>Hispanic</t>
-  </si>
-  <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -461,13 +464,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.0315936306883336</v>
+        <v>0.0001413464189845889</v>
       </c>
       <c r="D3">
-        <v>0.0315936306883336</v>
+        <v>0.0001413464189845889</v>
       </c>
       <c r="E3">
-        <v>0.1287752015265597</v>
+        <v>0.9937732000825565</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -484,19 +487,19 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>-0.01258219199560887</v>
+        <v>-0.06254012411990473</v>
       </c>
       <c r="D4">
-        <v>-0.01258219199560887</v>
+        <v>-0.06254012411990473</v>
       </c>
       <c r="E4">
-        <v>0.5574637600303601</v>
+        <v>0.00400754966092007</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -507,19 +510,19 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>-0.01316119509432882</v>
+        <v>-0.06427308807355728</v>
       </c>
       <c r="D5">
-        <v>-0.01316119509432882</v>
+        <v>-0.06427308807355728</v>
       </c>
       <c r="E5">
-        <v>0.450224980821133</v>
+        <v>0.003996397776674821</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/result_eth.xlsx
+++ b/result_eth.xlsx
@@ -40,10 +40,10 @@
     <t>Hispanic</t>
   </si>
   <si>
+    <t>Asian</t>
+  </si>
+  <si>
     <t>Black</t>
-  </si>
-  <si>
-    <t>Asian</t>
   </si>
   <si>
     <t>No</t>
@@ -464,13 +464,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.0001413464189845889</v>
+        <v>0.004388556155443771</v>
       </c>
       <c r="D3">
-        <v>0.0001413464189845889</v>
+        <v>0.004388556155443771</v>
       </c>
       <c r="E3">
-        <v>0.9937732000825565</v>
+        <v>0.8020175098606849</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -487,13 +487,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>-0.06254012411990473</v>
+        <v>-0.05555256826084561</v>
       </c>
       <c r="D4">
-        <v>-0.06254012411990473</v>
+        <v>-0.05555256826084561</v>
       </c>
       <c r="E4">
-        <v>0.00400754966092007</v>
+        <v>0.0111585719945238</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -510,13 +510,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>-0.06427308807355728</v>
+        <v>-0.06032822218108549</v>
       </c>
       <c r="D5">
-        <v>-0.06427308807355728</v>
+        <v>-0.06032822218108549</v>
       </c>
       <c r="E5">
-        <v>0.003996397776674821</v>
+        <v>0.004388391755088156</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>

--- a/result_eth.xlsx
+++ b/result_eth.xlsx
@@ -40,10 +40,10 @@
     <t>Hispanic</t>
   </si>
   <si>
+    <t>Black</t>
+  </si>
+  <si>
     <t>Asian</t>
-  </si>
-  <si>
-    <t>Black</t>
   </si>
   <si>
     <t>No</t>
@@ -464,13 +464,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.004388556155443771</v>
+        <v>0.0001413464189845889</v>
       </c>
       <c r="D3">
-        <v>0.004388556155443771</v>
+        <v>0.0001413464189845889</v>
       </c>
       <c r="E3">
-        <v>0.8020175098606849</v>
+        <v>0.9937732000825565</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -487,13 +487,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>-0.05555256826084561</v>
+        <v>-0.06254012411990473</v>
       </c>
       <c r="D4">
-        <v>-0.05555256826084561</v>
+        <v>-0.06254012411990473</v>
       </c>
       <c r="E4">
-        <v>0.0111585719945238</v>
+        <v>0.00400754966092007</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -510,13 +510,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>-0.06032822218108549</v>
+        <v>-0.06427308807355728</v>
       </c>
       <c r="D5">
-        <v>-0.06032822218108549</v>
+        <v>-0.06427308807355728</v>
       </c>
       <c r="E5">
-        <v>0.004388391755088156</v>
+        <v>0.003996397776674821</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
